--- a/listaCompleta.xlsx
+++ b/listaCompleta.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,12 +482,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Unidades V4 Company</t>
+          <t>Asaas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social Media - Júnior | V4 Kuerten Ávila &amp; Co.</t>
+          <t>Analista de Prevenção à Fraudes Júnior (PLDFT)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Efetivo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,19 +515,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://franquiasv4.gupy.io/job/eyJqb2JJZCI6NzAyMDIyMCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://asaas.gupy.io/job/eyJqb2JJZCI6NzAwNTcyNSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Minsait an Indra Company</t>
+          <t>Unidades V4 Company</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pessoa Analista de tráfego Junior</t>
+          <t>Social Media - Júnior | V4 Kuerten Ávila &amp; Co.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Efetivo</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -555,19 +555,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://minsait.gupy.io/job/eyJqb2JJZCI6NzAyMjExMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://franquiasv4.gupy.io/job/eyJqb2JJZCI6NzAyMDIyMCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Reclame AQUI</t>
+          <t>Minsait an Indra Company</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Analista de Sucesso do Cliente Júnior</t>
+          <t>Pessoa Analista de tráfego Junior</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -595,19 +595,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://reclame-aqui.gupy.io/job/eyJqb2JJZCI6NzAyMTYzNCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://minsait.gupy.io/job/eyJqb2JJZCI6NzAyMjExMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SolvePlan</t>
+          <t>Reclame AQUI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Consultor SAP Junior</t>
+          <t>Analista de Sucesso do Cliente Júnior</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -622,12 +622,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Efetivo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Também p/ PcD</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
@@ -635,19 +635,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://solveplan.gupy.io/job/eyJqb2JJZCI6NzAyMTI2NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://reclame-aqui.gupy.io/job/eyJqb2JJZCI6NzAyMTYzNCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Unidades V4 Company</t>
+          <t>SolvePlan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gestor de Tráfego - Júnior | V4 Marins &amp; Co.</t>
+          <t>Consultor SAP Junior</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Também p/ PcD</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
@@ -675,19 +675,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://franquiasv4.gupy.io/job/eyJqb2JJZCI6NzAwNjQ2NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://solveplan.gupy.io/job/eyJqb2JJZCI6NzAyMTI2NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WayCarbon</t>
+          <t>Unidades V4 Company</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pessoa DevOps Júnior</t>
+          <t>Gestor de Tráfego - Júnior | V4 Marins &amp; Co.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Efetivo</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -711,23 +711,23 @@
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://waycarbon.gupy.io/job/eyJqb2JJZCI6Njk4NTE4MCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://franquiasv4.gupy.io/job/eyJqb2JJZCI6NzAwNjQ2NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mutant</t>
+          <t>WayCarbon</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Analista de CRM - Júnior</t>
+          <t>Pessoa DevOps Júnior</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -751,23 +751,23 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://mutantbrvagas.gupy.io/job/eyJqb2JJZCI6NzAwODk5NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://waycarbon.gupy.io/job/eyJqb2JJZCI6Njk4NTE4MCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Unidades V4 Company</t>
+          <t>Mutant</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Analista de Recursos Humanos - Junior | V4 Mundim &amp; Co.</t>
+          <t>Analista de CRM - Júnior</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Efetivo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://franquiasv4.gupy.io/job/eyJqb2JJZCI6Njk5ODE4Nywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://mutantbrvagas.gupy.io/job/eyJqb2JJZCI6NzAwODk5NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Copywriter - Júnior | V4 DF &amp; Co.</t>
+          <t>Analista de Recursos Humanos - Junior | V4 Mundim &amp; Co.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Também p/ PcD</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
@@ -835,19 +835,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://franquiasv4.gupy.io/job/eyJqb2JJZCI6NzAwODExMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://franquiasv4.gupy.io/job/eyJqb2JJZCI6Njk5ODE4Nywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WestRock Brasil</t>
+          <t>Unidades V4 Company</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Técnico(a) de Sistemas de Embalagens Júnior (SERRA - ES)</t>
+          <t>Copywriter - Júnior | V4 DF &amp; Co.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -862,12 +862,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Efetivo</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Também p/ PcD</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
@@ -875,19 +875,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://westrock.gupy.io/job/eyJqb2JJZCI6NzAwNzc0Miwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://franquiasv4.gupy.io/job/eyJqb2JJZCI6NzAwODExMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ambev Tech</t>
+          <t>WestRock Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Analista de Testes (QA) Junior/Pleno - Vaga afirmativa para Mulheres e/ou Pessoas Pretas/Pardas e/ou PCD</t>
+          <t>Técnico(a) de Sistemas de Embalagens Júnior (SERRA - ES)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,19 +915,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://ambevtech.gupy.io/job/eyJqb2JJZCI6NzAwODI3OSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://westrock.gupy.io/job/eyJqb2JJZCI6NzAwNzc0Miwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bip Brasil</t>
+          <t>Ambev Tech</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pessoa Engenheira de Dados Junior</t>
+          <t>Analista de Testes (QA) Junior/Pleno - Vaga afirmativa para Mulheres e/ou Pessoas Pretas/Pardas e/ou PCD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -955,19 +955,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://vemprabip.gupy.io/job/eyJqb2JJZCI6Njk5ODcyMiwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://ambevtech.gupy.io/job/eyJqb2JJZCI6NzAwODI3OSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ambev Tech</t>
+          <t>Bip Brasil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gerente de Dados Junior (foco em Data Science) - Vaga afirmativa para Mulheres e/ou pessoas pretas e pardas e/ou PCDs</t>
+          <t>Pessoa Engenheira de Dados Junior</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -995,19 +995,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://ambevtech.gupy.io/job/eyJqb2JJZCI6NzAwNjc5NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://vemprabip.gupy.io/job/eyJqb2JJZCI6Njk5ODcyMiwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Seedz</t>
+          <t>Ambev Tech</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Analista Atendimento Junior | Vaga Afirmativa para Pessoas com Deficiência (PCD)</t>
+          <t>Gerente de Dados Junior (foco em Data Science) - Vaga afirmativa para Mulheres e/ou pessoas pretas e pardas e/ou PCDs</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1035,19 +1035,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://seedz.gupy.io/job/eyJqb2JJZCI6NzAwNjYxNCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://ambevtech.gupy.io/job/eyJqb2JJZCI6NzAwNjc5NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Montreal &amp; Tecnologia &amp; Inovação</t>
+          <t>Seedz</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Analista de Teste/Qualidade -Junior</t>
+          <t>Analista Atendimento Junior | Vaga Afirmativa para Pessoas com Deficiência (PCD)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1075,19 +1075,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://montreal.gupy.io/job/eyJqb2JJZCI6Njk3OTIxNywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://seedz.gupy.io/job/eyJqb2JJZCI6NzAwNjYxNCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nuria</t>
+          <t>Montreal &amp; Tecnologia &amp; Inovação</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Analista de Desenvolvimento Júnior - Suporte</t>
+          <t>Analista de Teste/Qualidade -Junior</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1111,23 +1111,23 @@
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://nuria.gupy.io/job/eyJqb2JJZCI6NzAwMjY0NCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://montreal.gupy.io/job/eyJqb2JJZCI6Njk3OTIxNywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Unidades V4 Company</t>
+          <t>Nuria</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BDR (Vendas) - Júnior | V4 Nunes Araújo &amp; Co.</t>
+          <t>Analista de Desenvolvimento Júnior - Suporte</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Efetivo</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1155,19 +1155,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://franquiasv4.gupy.io/job/eyJqb2JJZCI6Njk5NjI4OSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://nuria.gupy.io/job/eyJqb2JJZCI6NzAwMjY0NCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bip Brasil</t>
+          <t>Unidades V4 Company</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pessoa Consultora de Negócios Junior - Pesquisa e Inteligência de Mercado</t>
+          <t>BDR (Vendas) - Júnior | V4 Nunes Araújo &amp; Co.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Efetivo</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1195,19 +1195,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://vemprabip.gupy.io/job/eyJqb2JJZCI6NzAwMjQxNSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://franquiasv4.gupy.io/job/eyJqb2JJZCI6Njk5NjI4OSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TIVIT</t>
+          <t>Bip Brasil</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ANALISTA DE SUPORTE JUNIOR | Monitoração</t>
+          <t>Pessoa Consultora de Negócios Junior - Pesquisa e Inteligência de Mercado</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Também p/ PcD</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
@@ -1235,19 +1235,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://tivit.gupy.io/job/eyJqb2JJZCI6Njk5Njg0NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://vemprabip.gupy.io/job/eyJqb2JJZCI6NzAwMjQxNSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>foodtosave</t>
+          <t>TIVIT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Analista de Atendimento ao Cliente Júnior (Vaga Remota)</t>
+          <t>ANALISTA DE SUPORTE JUNIOR | Monitoração</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Também p/ PcD</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
@@ -1275,19 +1275,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://foodtosave.gupy.io/job/eyJqb2JJZCI6NzAwMTA0NCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://tivit.gupy.io/job/eyJqb2JJZCI6Njk5Njg0NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Efí by Gerencianet</t>
+          <t>foodtosave</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Analista de Dados - Júnior/Pleno</t>
+          <t>Analista de Atendimento ao Cliente Júnior (Vaga Remota)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1315,19 +1315,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://sejaefi.gupy.io/job/eyJqb2JJZCI6Njg2OTA4Miwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://foodtosave.gupy.io/job/eyJqb2JJZCI6NzAwMTA0NCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Giro.Tech - Infraestrutura para Crédito</t>
+          <t>Efí by Gerencianet</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Desenvolvedor Full Stack Júnior</t>
+          <t>Analista de Dados - Júnior/Pleno</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Efetivo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1355,19 +1355,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://girotech.gupy.io/job/eyJqb2JJZCI6Njk3NDkyMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://sejaefi.gupy.io/job/eyJqb2JJZCI6Njg2OTA4Miwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Quality Digital</t>
+          <t>Giro.Tech - Infraestrutura para Crédito</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ANALISTA DE SUPORTE TÉCNICO JÚNIOR</t>
+          <t>Desenvolvedor Full Stack Júnior</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1382,12 +1382,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Efetivo</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Também p/ PcD</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
@@ -1395,19 +1395,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://qualitydigital.gupy.io/job/eyJqb2JJZCI6Njk5MzI4OSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://girotech.gupy.io/job/eyJqb2JJZCI6Njk3NDkyMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>will bank</t>
+          <t>Quality Digital</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pessoa Analista Junior de Planejamento Financeiro</t>
+          <t>ANALISTA DE SUPORTE TÉCNICO JÚNIOR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Também p/ PcD</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
@@ -1435,19 +1435,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://vemserwill.gupy.io/job/eyJqb2JJZCI6Njk5ODA2Miwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://qualitydigital.gupy.io/job/eyJqb2JJZCI6Njk5MzI4OSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>STEFANINI LATAM</t>
+          <t>will bank</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Documentador Junior</t>
+          <t>Pessoa Analista Junior de Planejamento Financeiro</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1471,23 +1471,23 @@
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://stefaninilatam.gupy.io/job/eyJqb2JJZCI6Njk5MzgxMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://vemserwill.gupy.io/job/eyJqb2JJZCI6Njk5ODA2Miwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8D Hubify</t>
+          <t>STEFANINI LATAM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Analista de Marketing Digital - Customer Success (Júnior | Pleno)</t>
+          <t>Documentador Junior</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1511,23 +1511,23 @@
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://8dhubify.gupy.io/job/eyJqb2JJZCI6Njk4NzE3Niwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://stefaninilatam.gupy.io/job/eyJqb2JJZCI6Njk5MzgxMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Oi</t>
+          <t>8D Hubify</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Analista de Controle de Informações Júnior</t>
+          <t>Analista de Marketing Digital - Customer Success (Júnior | Pleno)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://oi.gupy.io/job/eyJqb2JJZCI6Njk2MTcwOSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://8dhubify.gupy.io/job/eyJqb2JJZCI6Njk4NzE3Niwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
@@ -3082,12 +3082,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Softplan</t>
+          <t>Contabilizei</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pessoa Analista Comercial (BDR) Júnior - Cód. 9257</t>
+          <t>Analista de Atendimento Junior (Reclame Aqui)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Também p/ PcD</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
@@ -3115,19 +3115,19 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://softplan.gupy.io/job/eyJqb2JJZCI6Njg4OTI1Nywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://contabilizei.gupy.io/job/eyJqb2JJZCI6NjkxNTM2MCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Contabilizei</t>
+          <t>Atlas Technologies</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Analista de Atendimento Junior (Reclame Aqui)</t>
+          <t>Quality Assurance Engineer - Junior - Vaga Afirmativa Para Pessoas Negras - PJ</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3142,12 +3142,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Efetivo</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Também p/ PcD</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://contabilizei.gupy.io/job/eyJqb2JJZCI6NjkxNTM2MCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://atlastechnol.gupy.io/job/eyJqb2JJZCI6NjkxNTE0MSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Quality Assurance Engineer - Junior - Vaga Afirmativa Para Pessoas Negras - PJ</t>
+          <t>Quality Assurance Engineer - Junior - PJ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3195,19 +3195,19 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://atlastechnol.gupy.io/job/eyJqb2JJZCI6NjkxNTE0MSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://atlastechnol.gupy.io/job/eyJqb2JJZCI6NjkxNTAyNCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Atlas Technologies</t>
+          <t>Contabilizei</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Quality Assurance Engineer - Junior - PJ</t>
+          <t>Analista de Abertura de Empresas Junior (Societário)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3222,12 +3222,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
+          <t>Efetivo</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Também p/ PcD</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
@@ -3235,19 +3235,19 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://atlastechnol.gupy.io/job/eyJqb2JJZCI6NjkxNTAyNCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://contabilizei.gupy.io/job/eyJqb2JJZCI6NjkxMjA0Nywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Contabilizei</t>
+          <t>Lojas Renner</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Analista de Abertura de Empresas Junior (Societário)</t>
+          <t>Uello | Analista de Planejamento e Roteirização Junior</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3275,19 +3275,19 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://contabilizei.gupy.io/job/eyJqb2JJZCI6NjkxMjA0Nywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://renner.gupy.io/job/eyJqb2JJZCI6NjkxMTgyMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Lojas Renner</t>
+          <t>Aliare</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Uello | Analista de Planejamento e Roteirização Junior</t>
+          <t>Programador Júnior</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3315,19 +3315,19 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://renner.gupy.io/job/eyJqb2JJZCI6NjkxMTgyMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://aliare.gupy.io/job/eyJqb2JJZCI6Njg2Mzk1NCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aliare</t>
+          <t>Neogrid Carreiras</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Programador Júnior</t>
+          <t>Engenharia de Automação de QA Júnior</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3351,11 +3351,11 @@
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45371</v>
+        <v>45370</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://aliare.gupy.io/job/eyJqb2JJZCI6Njg2Mzk1NCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://neogridcarreiras.gupy.io/job/eyJqb2JJZCI6NTg5NzM0Miwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Engenharia de Automação de QA Júnior</t>
+          <t>Pessoa Desenvolvedora Júnior [Supply Chain]</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3395,19 +3395,19 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://neogridcarreiras.gupy.io/job/eyJqb2JJZCI6NTg5NzM0Miwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://neogridcarreiras.gupy.io/job/eyJqb2JJZCI6NTg5NDk2NCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Neogrid Carreiras</t>
+          <t>Agendor</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pessoa Desenvolvedora Júnior [Supply Chain]</t>
+          <t>Junior Growth Marketing Analyst</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3427,27 +3427,27 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Também p/ PcD</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://neogridcarreiras.gupy.io/job/eyJqb2JJZCI6NTg5NDk2NCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://agendor.gupy.io/job/eyJqb2JJZCI6NjkwMDY4OCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Agendor</t>
+          <t>Somos BHS 💙</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Junior Growth Marketing Analyst</t>
+          <t>Analista Desenvolvedor Júnior - .Net (Home Office)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Também p/ PcD</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
@@ -3475,19 +3475,19 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://agendor.gupy.io/job/eyJqb2JJZCI6NjkwMDY4OCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://bhs.gupy.io/job/eyJqb2JJZCI6Njg4OTM4Miwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Somos BHS 💙</t>
+          <t>Contabilizei</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Analista Desenvolvedor Júnior - .Net (Home Office)</t>
+          <t>Analista de Contrato e Legalização Júnior</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3511,23 +3511,23 @@
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45369</v>
+        <v>45365</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://bhs.gupy.io/job/eyJqb2JJZCI6Njg4OTM4Miwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://contabilizei.gupy.io/job/eyJqb2JJZCI6Njg4Mzk3Nywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Contabilizei</t>
+          <t>Aegea Saneamento</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Analista de Contrato e Legalização Júnior</t>
+          <t>Especialista de Tecnologia e Eficiência Júnior - Eficiência energética</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3551,23 +3551,23 @@
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45365</v>
+        <v>45364</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://contabilizei.gupy.io/job/eyJqb2JJZCI6Njg4Mzk3Nywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://aegea.gupy.io/job/eyJqb2JJZCI6Njg4MjI3OSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Aegea Saneamento</t>
+          <t>Zeev by Stoque</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Especialista de Tecnologia e Eficiência Júnior - Eficiência energética</t>
+          <t>Pessoa Analista Programadora .Net Júnior</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3595,19 +3595,19 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://aegea.gupy.io/job/eyJqb2JJZCI6Njg4MjI3OSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://zeev.gupy.io/job/eyJqb2JJZCI6Njg4MTUyMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Zeev by Stoque</t>
+          <t>DataHub Analytics</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Pessoa Analista Programadora .Net Júnior</t>
+          <t>PMO Júnior (Project Management Office)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3631,23 +3631,23 @@
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45364</v>
+        <v>45362</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://zeev.gupy.io/job/eyJqb2JJZCI6Njg4MTUyMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://datahub.gupy.io/job/eyJqb2JJZCI6Njg2NTk3NCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DataHub Analytics</t>
+          <t>Cadastra</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PMO Júnior (Project Management Office)</t>
+          <t>Analista Financeiro Júnior - Vaga Afirmativa - Pessoas com Deficiência (PCD)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3671,23 +3671,23 @@
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45362</v>
+        <v>45359</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://datahub.gupy.io/job/eyJqb2JJZCI6Njg2NTk3NCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://cadastra.gupy.io/job/eyJqb2JJZCI6NjgzMjg4NCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cadastra</t>
+          <t>Korp</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Analista Financeiro Júnior - Vaga Afirmativa - Pessoas com Deficiência (PCD)</t>
+          <t>Desenvolvedor (a) Web Fullstack C# e Angular - Júnior</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3715,19 +3715,19 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://cadastra.gupy.io/job/eyJqb2JJZCI6NjgzMjg4NCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://korp.gupy.io/job/eyJqb2JJZCI6Njg1ODc2Nywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Korp</t>
+          <t>MoselloLima Advocacia</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Desenvolvedor (a) Web Fullstack C# e Angular - Júnior</t>
+          <t>Designer Gráfico Júnior</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Efetivo</t>
+          <t>Autônomo</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3751,23 +3751,23 @@
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45359</v>
+        <v>45358</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://korp.gupy.io/job/eyJqb2JJZCI6Njg1ODc2Nywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://mosellolima.gupy.io/job/eyJqb2JJZCI6Njg1MzIyMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MoselloLima Advocacia</t>
+          <t>Oportunidade na Servimex!</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Designer Gráfico Júnior</t>
+          <t>Analista Programador Junior</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Autônomo</t>
+          <t>Efetivo</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3795,19 +3795,19 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://mosellolima.gupy.io/job/eyJqb2JJZCI6Njg1MzIyMywic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://servimexlogistica.gupy.io/job/eyJqb2JJZCI6NjgyNjI5NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Oportunidade na Servimex!</t>
+          <t>Unicesumar</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Analista Programador Junior</t>
+          <t>Assessor Pedagógico Júnior/Estágios - Banco de Talentos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Efetivo</t>
+          <t>Banco de Talentos</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3835,19 +3835,19 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://servimexlogistica.gupy.io/job/eyJqb2JJZCI6NjgyNjI5NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://unicesumaroficial.gupy.io/job/eyJqb2JJZCI6Njg1MDMyOCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Unicesumar</t>
+          <t>Unidades V4 Company</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Assessor Pedagógico Júnior/Estágios - Banco de Talentos</t>
+          <t>Account Manager - Júnior | V4 Canovas Mendes &amp; Co.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Banco de Talentos</t>
+          <t>Pessoa Jurídica</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3871,23 +3871,23 @@
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45358</v>
+        <v>45357</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://unicesumaroficial.gupy.io/job/eyJqb2JJZCI6Njg1MDMyOCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://franquiasv4.gupy.io/job/eyJqb2JJZCI6Njg0NzQ4NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Contabilizei</t>
+          <t>Zitrus Healthtech</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Analista de Atendimento Contábil Júnior</t>
+          <t>Analista de Qualidade de Software Júnior</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3907,15 +3907,15 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Também p/ PcD</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45357</v>
+        <v>45356</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://contabilizei.gupy.io/job/eyJqb2JJZCI6Njg0NzgzMSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
+          <t>https://sejaumzitrino.gupy.io/job/eyJqb2JJZCI6NjgzMjQ2MSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Account Manager - Júnior | V4 Canovas Mendes &amp; Co.</t>
+          <t>Gestor de Tráfego - Júnior | V4 Canovas Mendes &amp; Co.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3947,93 +3947,13 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Também p/ PcD</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45357</v>
+        <v>45355</v>
       </c>
       <c r="H88" t="inlineStr">
-        <is>
-          <t>https://franquiasv4.gupy.io/job/eyJqb2JJZCI6Njg0NzQ4NSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Zitrus Healthtech</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Analista de Qualidade de Software Júnior</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Remoto</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Efetivo</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="n">
-        <v>45356</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>https://sejaumzitrino.gupy.io/job/eyJqb2JJZCI6NjgzMjQ2MSwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Unidades V4 Company</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Gestor de Tráfego - Júnior | V4 Canovas Mendes &amp; Co.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Remoto</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Não informado</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="H90" t="inlineStr">
         <is>
           <t>https://franquiasv4.gupy.io/job/eyJqb2JJZCI6NjgzNDUzMCwic291cmNlIjoiZ3VweV9wb3J0YWwifQ==?jobBoardSource=gupy_portal</t>
         </is>
